--- a/medicine/Mort/Bateau_de_Ladby/Bateau_de_Ladby.xlsx
+++ b/medicine/Mort/Bateau_de_Ladby/Bateau_de_Ladby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bateau de Ladby est un bateau tombe d'importance, du type du bateau utilisé dans une cérémonie funéraire à Hedeby et des bateaux tombes d'Oseberg, Borre, Gokstad et Tune dans le Sud de la Norvège, tous remontant aux IXe et Xe siècles. Il s'agit du seul bateau tombe retrouvé au Danemark.
